--- a/Artéfacts/Artéfacts Sprint 6 - Partie 2/Calendrier Sprint 6 - Partie 2.xlsx
+++ b/Artéfacts/Artéfacts Sprint 6 - Partie 2/Calendrier Sprint 6 - Partie 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 6 - Partie 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B98E56-DDD4-4334-A22E-69F431076006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A352F405-4DC7-4A1A-ACFA-6F877B8E1BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>LUNDI</t>
   </si>
@@ -108,10 +108,16 @@
     <t>Faire le tableau Excel du Sprint 6 - Partie 2</t>
   </si>
   <si>
-    <t>Tâches terminé le 10/05/2024</t>
-  </si>
-  <si>
     <t>Jour de rendu final et travail en équipe</t>
+  </si>
+  <si>
+    <t>Tâche terminé le 07/05/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 17/05/2024</t>
+  </si>
+  <si>
+    <t>Tâche terminé le 16/05/2024</t>
   </si>
 </sst>
 </file>
@@ -163,12 +169,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -185,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,24 +204,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +537,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,28 +553,28 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -585,13 +589,13 @@
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -600,11 +604,11 @@
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="U1" s="1"/>
-      <c r="V1" s="14"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
@@ -753,59 +757,59 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -846,47 +850,47 @@
       </c>
       <c r="J7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -904,33 +908,33 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +949,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,7 +973,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -977,7 +981,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -985,7 +989,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -993,7 +997,7 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +1005,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1009,12 +1013,12 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12">
